--- a/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14860F35-63FB-6842-9D18-0A72B7135377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD5C3E-17CD-F34D-9E5E-8FFBC1696D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="500" windowWidth="23020" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="174">
   <si>
     <t>Votes</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>Fixed total which was causing a negative "other".</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,6 +812,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5451,10 +5461,10 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:J1048576"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6732,10 +6742,10 @@
       </c>
       <c r="F39" s="13">
         <f t="shared" ref="F39:F40" si="6">G39-SUM(D39:E39)</f>
-        <v>-59486</v>
-      </c>
-      <c r="G39" s="1">
-        <v>83960</v>
+        <v>40514</v>
+      </c>
+      <c r="G39" s="40">
+        <v>183960</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -6745,6 +6755,9 @@
       </c>
       <c r="J39">
         <v>0</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -8587,11 +8600,11 @@
       </c>
       <c r="F96" s="17">
         <f t="shared" si="14"/>
-        <v>1343063</v>
+        <v>1443063</v>
       </c>
       <c r="G96" s="17">
         <f t="shared" si="14"/>
-        <v>11297389</v>
+        <v>11397389</v>
       </c>
       <c r="H96" s="19">
         <f t="shared" si="14"/>
@@ -11185,10 +11198,10 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94:J95"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12394,10 +12407,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-59486</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>83960</v>
+        <v>183960</v>
       </c>
       <c r="H38">
         <v>1</v>

--- a/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD5C3E-17CD-F34D-9E5E-8FFBC1696D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFAC90-0180-DE4B-B5B3-6895CAE2CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="500" windowWidth="23020" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11201,7 +11201,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFAC90-0180-DE4B-B5B3-6895CAE2CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC396A-9272-B845-BF79-BFCB3D5C5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="500" windowWidth="23020" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="500" windowWidth="23020" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="6" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="7" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="6" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -54,7 +50,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="164">
   <si>
     <t>Votes</t>
   </si>
@@ -530,36 +526,6 @@
   </si>
   <si>
     <t xml:space="preserve">Note: No Republican ran, but an independent won. </t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of TOT1</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
   </si>
   <si>
     <t>STATE</t>
@@ -665,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,18 +652,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -734,31 +694,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,36 +735,12 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -835,1781 +751,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42879.361231944444" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J94" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="253330"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="213065"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-59486" maxValue="72339"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="306309" count="62">
-        <n v="165669"/>
-        <n v="169519"/>
-        <n v="209514"/>
-        <n v="241917"/>
-        <n v="0"/>
-        <s v=" "/>
-        <n v="114781"/>
-        <n v="112914"/>
-        <n v="189022"/>
-        <n v="190332"/>
-        <n v="263006"/>
-        <n v="306309"/>
-        <n v="227539"/>
-        <n v="178820"/>
-        <n v="256794"/>
-        <n v="194003"/>
-        <n v="176683"/>
-        <n v="284615"/>
-        <n v="100718"/>
-        <n v="112991"/>
-        <n v="156952"/>
-        <n v="132342"/>
-        <n v="199652"/>
-        <n v="100963"/>
-        <n v="162889"/>
-        <n v="183257"/>
-        <n v="239909"/>
-        <n v="83960"/>
-        <n v="183483"/>
-        <n v="253867"/>
-        <n v="278570"/>
-        <n v="279965"/>
-        <n v="202723"/>
-        <n v="175622"/>
-        <n v="185855"/>
-        <n v="215085"/>
-        <n v="214247"/>
-        <n v="159216"/>
-        <n v="183694"/>
-        <n v="172447"/>
-        <n v="184401"/>
-        <n v="147533"/>
-        <n v="189051"/>
-        <n v="157848"/>
-        <n v="209485"/>
-        <n v="143334"/>
-        <n v="178830"/>
-        <n v="252741"/>
-        <n v="255216"/>
-        <n v="240831"/>
-        <n v="120448"/>
-        <n v="185898"/>
-        <n v="122574"/>
-        <n v="138260"/>
-        <n v="118961"/>
-        <n v="140753"/>
-        <n v="191895"/>
-        <n v="154483"/>
-        <n v="283637"/>
-        <n v="265809"/>
-        <n v="194771"/>
-        <n v="160786"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="92">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="1st"/>
-    <n v="151188"/>
-    <n v="0"/>
-    <n v="14481"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="3rd"/>
-    <n v="147317"/>
-    <n v="0"/>
-    <n v="22202"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="186059"/>
-    <n v="23455"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="6th"/>
-    <n v="212751"/>
-    <n v="0"/>
-    <n v="29166"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="3rd"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="26th"/>
-    <n v="0"/>
-    <n v="96500"/>
-    <n v="18281"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="31st"/>
-    <n v="0"/>
-    <n v="89600"/>
-    <n v="23314"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="40th"/>
-    <n v="151069"/>
-    <n v="0"/>
-    <n v="37953"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="43rd"/>
-    <n v="140201"/>
-    <n v="0"/>
-    <n v="50131"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="4th"/>
-    <n v="209078"/>
-    <n v="0"/>
-    <n v="53928"/>
-    <x v="10"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="5th"/>
-    <n v="253330"/>
-    <n v="0"/>
-    <n v="52979"/>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="1st"/>
-    <n v="226473"/>
-    <n v="0"/>
-    <n v="1066"/>
-    <x v="12"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="6th"/>
-    <n v="178789"/>
-    <n v="0"/>
-    <n v="31"/>
-    <x v="13"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="9th"/>
-    <n v="210318"/>
-    <n v="0"/>
-    <n v="46476"/>
-    <x v="14"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="10th"/>
-    <n v="146799"/>
-    <n v="0"/>
-    <n v="47204"/>
-    <x v="15"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="149465"/>
-    <n v="27218"/>
-    <x v="16"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="14th"/>
-    <n v="242614"/>
-    <n v="0"/>
-    <n v="42001"/>
-    <x v="17"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="100715"/>
-    <n v="3"/>
-    <x v="18"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="18th"/>
-    <n v="112968"/>
-    <n v="0"/>
-    <n v="23"/>
-    <x v="19"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="156765"/>
-    <n v="187"/>
-    <x v="20"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <n v="132317"/>
-    <n v="0"/>
-    <n v="25"/>
-    <x v="21"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="11th"/>
-    <n v="199652"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="22"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="89487"/>
-    <n v="11476"/>
-    <x v="23"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="142161"/>
-    <n v="20728"/>
-    <x v="24"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="183208"/>
-    <n v="49"/>
-    <x v="25"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="1st"/>
-    <n v="214328"/>
-    <n v="0"/>
-    <n v="25581"/>
-    <x v="26"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="2nd"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="3rd"/>
-    <n v="143446"/>
-    <n v="0"/>
-    <n v="-59486"/>
-    <x v="27"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="152796"/>
-    <n v="30687"/>
-    <x v="28"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="196670"/>
-    <n v="57197"/>
-    <x v="29"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="213065"/>
-    <n v="65505"/>
-    <x v="30"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="211543"/>
-    <n v="68422"/>
-    <x v="31"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="144031"/>
-    <n v="58692"/>
-    <x v="32"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="117194"/>
-    <n v="58428"/>
-    <x v="33"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="6th"/>
-    <n v="172489"/>
-    <n v="0"/>
-    <n v="13366"/>
-    <x v="34"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="7th"/>
-    <n v="195727"/>
-    <n v="0"/>
-    <n v="19358"/>
-    <x v="35"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="177731"/>
-    <n v="36516"/>
-    <x v="36"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="3rd"/>
-    <n v="137826"/>
-    <n v="0"/>
-    <n v="21390"/>
-    <x v="37"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="180021"/>
-    <n v="3673"/>
-    <x v="38"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="5th"/>
-    <n v="147570"/>
-    <n v="0"/>
-    <n v="24877"/>
-    <x v="39"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="9th"/>
-    <n v="184401"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="40"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="14th"/>
-    <n v="0"/>
-    <n v="147533"/>
-    <n v="0"/>
-    <x v="41"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="4th"/>
-    <n v="150436"/>
-    <n v="0"/>
-    <n v="38615"/>
-    <x v="42"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="1st"/>
-    <n v="157828"/>
-    <n v="0"/>
-    <n v="20"/>
-    <x v="43"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="2nd"/>
-    <n v="187154"/>
-    <n v="0"/>
-    <n v="22331"/>
-    <x v="44"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="9th"/>
-    <n v="143298"/>
-    <n v="0"/>
-    <n v="36"/>
-    <x v="45"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="162891"/>
-    <n v="15939"/>
-    <x v="46"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="6th"/>
-    <n v="222685"/>
-    <n v="0"/>
-    <n v="30056"/>
-    <x v="47"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="8th"/>
-    <n v="233848"/>
-    <n v="0"/>
-    <n v="21368"/>
-    <x v="48"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="203628"/>
-    <n v="37203"/>
-    <x v="49"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="15th"/>
-    <n v="0"/>
-    <n v="106570"/>
-    <n v="13878"/>
-    <x v="50"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="19th"/>
-    <n v="170319"/>
-    <n v="0"/>
-    <n v="15579"/>
-    <x v="51"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="107487"/>
-    <n v="15087"/>
-    <x v="52"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="28th"/>
-    <n v="0"/>
-    <n v="123104"/>
-    <n v="15156"/>
-    <x v="53"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="30th"/>
-    <n v="0"/>
-    <n v="109163"/>
-    <n v="9798"/>
-    <x v="54"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="137527"/>
-    <n v="3226"/>
-    <x v="55"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="189787"/>
-    <n v="2108"/>
-    <x v="56"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="6th"/>
-    <n v="153338"/>
-    <n v="0"/>
-    <n v="1145"/>
-    <x v="57"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="10th"/>
-    <n v="238817"/>
-    <n v="0"/>
-    <n v="44820"/>
-    <x v="58"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="193470"/>
-    <n v="72339"/>
-    <x v="59"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="170974"/>
-    <n v="23797"/>
-    <x v="60"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="146807"/>
-    <n v="13979"/>
-    <x v="61"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="63">
-        <item x="4"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="6"/>
-        <item x="54"/>
-        <item x="50"/>
-        <item x="52"/>
-        <item x="21"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="57"/>
-        <item x="20"/>
-        <item x="43"/>
-        <item x="37"/>
-        <item x="61"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="33"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="34"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="42"/>
-        <item x="9"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="60"/>
-        <item x="22"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="2"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="12"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="3"/>
-        <item x="47"/>
-        <item x="29"/>
-        <item x="48"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="59"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="58"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of TOT1" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2875,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,15 +1032,12 @@
     <col min="3" max="3" width="10.83203125" style="12"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="14" customWidth="1"/>
-    <col min="12" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="14" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2910,23 +1048,15 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
-        <v>153</v>
-      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2945,35 +1075,23 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>157</v>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2993,34 +1111,21 @@
       <c r="F3" s="1">
         <v>1438994</v>
       </c>
-      <c r="G3" s="12">
-        <v>786619</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="36">
-        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>217458.33333333334</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" ref="K3:K34" si="2">N3-L3-M3</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G34" si="1">J3-H3-I3</f>
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3040,34 +1145,21 @@
       <c r="F4" s="1">
         <v>274393</v>
       </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
+      <c r="G4" s="14">
         <f t="shared" si="1"/>
-        <v>274393</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3087,34 +1179,21 @@
       <c r="F5" s="1">
         <v>1465656</v>
       </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>244276</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3134,34 +1213,21 @@
       <c r="F6" s="1">
         <v>632765</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
-        <v>210921.66666666666</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3181,34 +1247,21 @@
       <c r="F7" s="1">
         <v>10436607</v>
       </c>
-      <c r="G7" s="12">
-        <v>607049</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
-        <v>204782.45833333334</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>32</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3228,34 +1281,21 @@
       <c r="F8" s="1">
         <v>1623882</v>
       </c>
-      <c r="G8" s="12">
-        <v>569315</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <f t="shared" si="1"/>
-        <v>263641.75</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3275,34 +1315,21 @@
       <c r="F9" s="1">
         <v>1313490</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>218915</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3322,34 +1349,21 @@
       <c r="F10" s="1">
         <v>313126</v>
       </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
-        <v>313126</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3369,34 +1383,21 @@
       <c r="F11" s="1">
         <v>5011220</v>
       </c>
-      <c r="G11" s="12">
-        <v>1821457</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="36">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
-        <v>245366.38461538462</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3416,34 +1417,21 @@
       <c r="F12" s="1">
         <v>2416622</v>
       </c>
-      <c r="G12" s="12">
-        <v>199652</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>221697</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3463,34 +1451,21 @@
       <c r="F13" s="1">
         <v>340424</v>
       </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
-        <v>170212</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3510,34 +1485,21 @@
       <c r="F14" s="1">
         <v>492835</v>
       </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
-        <v>246417.5</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3557,34 +1519,21 @@
       <c r="F15" s="1">
         <v>4393286</v>
       </c>
-      <c r="G15" s="12">
-        <v>447109</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
-        <v>232128.0588235294</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3604,34 +1553,21 @@
       <c r="F16" s="1">
         <v>2156744</v>
       </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
-        <v>215674.4</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3651,34 +1587,21 @@
       <c r="F17" s="1">
         <v>1275934</v>
       </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="G17" s="14">
         <f t="shared" si="1"/>
-        <v>255186.8</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3698,34 +1621,21 @@
       <c r="F18" s="1">
         <v>1035961</v>
       </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
+      <c r="G18" s="14">
         <f t="shared" si="1"/>
-        <v>258990.25</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3745,34 +1655,21 @@
       <c r="F19" s="1">
         <v>1435409</v>
       </c>
-      <c r="G19" s="12">
-        <v>239909</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
-        <v>239100</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3792,34 +1689,21 @@
       <c r="F20" s="1">
         <v>1202171</v>
       </c>
-      <c r="G20" s="12">
-        <v>267443</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="J20" s="36">
-        <f t="shared" si="1"/>
-        <v>233682</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3839,34 +1723,21 @@
       <c r="F21" s="1">
         <v>638399</v>
       </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="G21" s="14">
         <f t="shared" si="1"/>
-        <v>319199.5</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3886,34 +1757,21 @@
       <c r="F22" s="1">
         <v>1926764</v>
       </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>240845.5</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L22">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3933,34 +1791,21 @@
       <c r="F23" s="1">
         <v>2733972</v>
       </c>
-      <c r="G23" s="12">
-        <v>1015125</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="36">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
-        <v>286474.5</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3980,34 +1825,21 @@
       <c r="F24" s="1">
         <v>4069660</v>
       </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="G24" s="14">
         <f t="shared" si="1"/>
-        <v>254353.75</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>9</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4027,34 +1859,21 @@
       <c r="F25" s="1">
         <v>2363738</v>
       </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36">
+      <c r="G25" s="14">
         <f t="shared" si="1"/>
-        <v>295467.25</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4074,34 +1893,21 @@
       <c r="F26" s="1">
         <v>986139</v>
       </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="36">
+      <c r="G26" s="14">
         <f t="shared" si="1"/>
-        <v>197227.8</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4121,34 +1927,21 @@
       <c r="F27" s="1">
         <v>2325788</v>
       </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="G27" s="14">
         <f t="shared" si="1"/>
-        <v>258420.88888888888</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4168,34 +1961,21 @@
       <c r="F28" s="1">
         <v>410521</v>
       </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="36">
+      <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>410521</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4215,34 +1995,21 @@
       <c r="F29" s="1">
         <v>683071</v>
       </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="36">
+      <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>227690.33333333334</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4262,34 +2029,21 @@
       <c r="F30" s="1">
         <v>586653</v>
       </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="G30" s="14">
         <f t="shared" si="1"/>
-        <v>293326.5</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4309,34 +2063,21 @@
       <c r="F31" s="1">
         <v>556049</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="G31" s="14">
         <f t="shared" si="1"/>
-        <v>278024.5</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4356,34 +2097,21 @@
       <c r="F32" s="1">
         <v>2988233</v>
       </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="36">
+      <c r="G32" s="14">
         <f t="shared" si="1"/>
-        <v>229864.07692307694</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4403,34 +2131,21 @@
       <c r="F33" s="1">
         <v>587514</v>
       </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="G33" s="14">
         <f t="shared" si="1"/>
-        <v>195838</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4450,34 +2165,21 @@
       <c r="F34" s="1">
         <v>6948676</v>
       </c>
-      <c r="G34" s="12">
-        <v>175622</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="36">
+      <c r="G34" s="14">
         <f t="shared" si="1"/>
-        <v>225768.46666666667</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>19</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4497,34 +2199,21 @@
       <c r="F35" s="1">
         <v>2779800</v>
       </c>
-      <c r="G35" s="12">
-        <v>400940</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36">
-        <f t="shared" ref="J35:J52" si="3">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>237886</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" ref="K35:K51" si="4">N35-L35-M35</f>
+      <c r="G35" s="14">
+        <f t="shared" ref="G35:G51" si="2">J35-H35-I35</f>
         <v>7</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4544,34 +2233,21 @@
       <c r="F36" s="1">
         <v>285658</v>
       </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="36">
-        <f t="shared" si="3"/>
-        <v>285658</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4591,34 +2267,21 @@
       <c r="F37" s="1">
         <v>4585038</v>
       </c>
-      <c r="G37" s="12">
-        <v>214247</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="36">
-        <f t="shared" si="3"/>
-        <v>242821.72222222222</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="4"/>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>8</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4638,34 +2301,21 @@
       <c r="F38" s="1">
         <v>1087515</v>
       </c>
-      <c r="G38" s="12">
-        <v>159216</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="36">
-        <f t="shared" si="3"/>
-        <v>185659.8</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="4"/>
+      <c r="G38" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -4685,34 +2335,21 @@
       <c r="F39" s="1">
         <v>1440002</v>
       </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="36">
-        <f t="shared" si="3"/>
-        <v>288000.40000000002</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4732,34 +2369,21 @@
       <c r="F40" s="1">
         <v>4552010</v>
       </c>
-      <c r="G40" s="12">
-        <v>688075</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2</v>
-      </c>
-      <c r="J40" s="36">
-        <f t="shared" si="3"/>
-        <v>227290.29411764705</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="4"/>
+      <c r="G40" s="14">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>10</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -4779,34 +2403,21 @@
       <c r="F41" s="1">
         <v>384272</v>
       </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36">
-        <f t="shared" si="3"/>
-        <v>192136</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -4826,34 +2437,21 @@
       <c r="F42" s="1">
         <v>1321312</v>
       </c>
-      <c r="G42" s="12">
-        <v>189051</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="36">
-        <f t="shared" si="3"/>
-        <v>226452.2</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="4"/>
+      <c r="G42" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L42">
+      <c r="H42">
         <v>2</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4873,34 +2471,21 @@
       <c r="F43" s="1">
         <v>314761</v>
       </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="36">
-        <f t="shared" si="3"/>
-        <v>314761</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -4920,34 +2505,21 @@
       <c r="F44" s="1">
         <v>1854378</v>
       </c>
-      <c r="G44" s="12">
-        <v>510667</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="36">
-        <f t="shared" si="3"/>
-        <v>223951.83333333334</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="4"/>
+      <c r="G44" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -4967,34 +2539,21 @@
       <c r="F45" s="1">
         <v>5985763</v>
       </c>
-      <c r="G45" s="12">
-        <v>1613759</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1">
-        <v>6</v>
-      </c>
-      <c r="J45" s="36">
-        <f t="shared" si="3"/>
-        <v>208190.66666666666</v>
-      </c>
-      <c r="K45" s="14">
-        <f t="shared" si="4"/>
+      <c r="G45" s="14">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>17</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -5014,34 +2573,21 @@
       <c r="F46" s="1">
         <v>758754</v>
       </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="36">
-        <f t="shared" si="3"/>
-        <v>252918</v>
-      </c>
-      <c r="K46" s="14">
-        <f t="shared" si="4"/>
+      <c r="G46" s="14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -5061,34 +2607,21 @@
       <c r="F47" s="1">
         <v>283366</v>
       </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="36">
-        <f t="shared" si="3"/>
-        <v>283366</v>
-      </c>
-      <c r="K47" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G47" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -5108,34 +2641,21 @@
       <c r="F48" s="1">
         <v>2421729</v>
       </c>
-      <c r="G48" s="12">
-        <v>770768</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2</v>
-      </c>
-      <c r="J48" s="36">
-        <f t="shared" si="3"/>
-        <v>235851.57142857142</v>
-      </c>
-      <c r="K48" s="14">
-        <f t="shared" si="4"/>
+      <c r="G48" s="14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5155,34 +2675,21 @@
       <c r="F49" s="1">
         <v>2382411</v>
       </c>
-      <c r="G49" s="12">
-        <v>265809</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="36">
-        <f t="shared" si="3"/>
-        <v>264575.25</v>
-      </c>
-      <c r="K49" s="14">
-        <f t="shared" si="4"/>
+      <c r="G49" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5202,34 +2709,21 @@
       <c r="F50" s="1">
         <v>579872</v>
       </c>
-      <c r="G50" s="12">
-        <v>355557</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="G50" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>2</v>
       </c>
-      <c r="J50" s="36">
-        <f t="shared" si="3"/>
-        <v>224315</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -5249,34 +2743,21 @@
       <c r="F51" s="1">
         <v>2506314</v>
       </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="36">
-        <f t="shared" si="3"/>
-        <v>278479.33333333331</v>
-      </c>
-      <c r="K51" s="14">
-        <f t="shared" si="4"/>
+      <c r="G51" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>5</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -5296,37 +2777,24 @@
       <c r="F52" s="1">
         <v>212312</v>
       </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="36">
-        <f t="shared" si="3"/>
-        <v>212312</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" ref="K52" si="5">N52-L52-M52</f>
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="14">
+        <f t="shared" ref="G52" si="3">J52-H52-I52</f>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>110</v>
       </c>
@@ -5336,51 +2804,36 @@
         <v>46750175</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" ref="D54:F54" si="6">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
         <v>46411559</v>
       </c>
       <c r="E54" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5638229</v>
       </c>
       <c r="F54" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>98799963</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="19">
         <f>SUM(G3:G52)</f>
-        <v>11297389</v>
-      </c>
-      <c r="H54" s="17">
-        <f t="shared" ref="H54:I54" si="7">SUM(H3:H52)</f>
-        <v>31</v>
-      </c>
-      <c r="I54" s="17">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="19">
-        <f>SUM(K3:K52)</f>
         <v>221</v>
       </c>
-      <c r="L54" s="15">
-        <f t="shared" ref="L54:M54" si="8">SUM(L3:L52)</f>
+      <c r="H54" s="15">
+        <f t="shared" ref="H54:I54" si="5">SUM(H3:H52)</f>
         <v>212</v>
       </c>
-      <c r="M54" s="15">
-        <f t="shared" si="8"/>
+      <c r="I54" s="15">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N54" s="15">
-        <f>SUM(N3:N52)</f>
+      <c r="J54" s="15">
+        <f>SUM(J3:J52)</f>
         <v>435</v>
       </c>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="19"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>111</v>
       </c>
@@ -5395,25 +2848,21 @@
       <c r="F58" s="22">
         <v>98799963</v>
       </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="23">
+      <c r="G58" s="23">
         <v>221</v>
       </c>
-      <c r="L58" s="20">
+      <c r="H58" s="20">
         <v>212</v>
       </c>
-      <c r="M58" s="20">
+      <c r="I58" s="20">
         <v>2</v>
       </c>
-      <c r="N58" s="20">
+      <c r="J58" s="20">
         <v>435</v>
       </c>
-      <c r="O58" s="23"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K58" s="23"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5422,30 +2871,30 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:F59" si="9">D54-D58</f>
+        <f t="shared" ref="D59:F59" si="6">D54-D58</f>
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="14">
-        <f>K54-K58</f>
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <f>L54-L58</f>
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <f>M54-M58</f>
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <f>N54-N58</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <f>G54-G58</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>H54-H58</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>I54-I58</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>J54-J58</f>
         <v>0</v>
       </c>
     </row>
@@ -5458,13 +2907,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5475,10 +2924,10 @@
     <col min="6" max="6" width="10.83203125" style="31"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="10.83203125" style="14"/>
-    <col min="11" max="11" width="52.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5497,7 +2946,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +2981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5564,8 +3013,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5597,8 +3050,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5630,8 +3087,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5663,8 +3124,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5696,8 +3161,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5729,8 +3198,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
@@ -5764,8 +3237,12 @@
       <c r="K9" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5797,8 +3274,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5815,7 +3296,7 @@
         <v>89600</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" ref="F11:F13" si="2">G11-SUM(D11:E11)</f>
+        <f t="shared" ref="F11:F13" si="3">G11-SUM(D11:E11)</f>
         <v>23314</v>
       </c>
       <c r="G11" s="1">
@@ -5830,8 +3311,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5848,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37953</v>
       </c>
       <c r="G12" s="1">
@@ -5863,8 +3348,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5881,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50131</v>
       </c>
       <c r="G13" s="1">
@@ -5896,8 +3385,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5929,8 +3422,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5947,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15" si="3">G15-SUM(D15:E15)</f>
+        <f t="shared" ref="F15" si="4">G15-SUM(D15:E15)</f>
         <v>52979</v>
       </c>
       <c r="G15" s="1">
@@ -5962,8 +3459,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5995,8 +3496,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6028,8 +3533,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6061,8 +3570,12 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6079,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" ref="F19:F27" si="4">G19-SUM(D19:E19)</f>
+        <f t="shared" ref="F19:F27" si="5">G19-SUM(D19:E19)</f>
         <v>31</v>
       </c>
       <c r="G19" s="1">
@@ -6094,8 +3607,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6112,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46476</v>
       </c>
       <c r="G20" s="1">
@@ -6127,8 +3644,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6145,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47204</v>
       </c>
       <c r="G21" s="1">
@@ -6160,8 +3681,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +3703,7 @@
         <v>149465</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27218</v>
       </c>
       <c r="G22" s="1">
@@ -6193,8 +3718,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -6211,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42001</v>
       </c>
       <c r="G23" s="1">
@@ -6226,8 +3755,12 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -6244,7 +3777,7 @@
         <v>100715</v>
       </c>
       <c r="F24" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G24" s="1">
@@ -6259,8 +3792,12 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6277,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="G25" s="1">
@@ -6292,8 +3829,12 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6310,7 +3851,7 @@
         <v>156765</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="G26" s="1">
@@ -6325,8 +3866,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6343,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="G27" s="1">
@@ -6358,8 +3903,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6391,8 +3940,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6424,8 +3977,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -6457,8 +4014,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -6490,8 +4051,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -6508,7 +4073,7 @@
         <v>142161</v>
       </c>
       <c r="F32" s="13">
-        <f t="shared" ref="F32:F33" si="5">G32-SUM(D32:E32)</f>
+        <f t="shared" ref="F32:F33" si="6">G32-SUM(D32:E32)</f>
         <v>20728</v>
       </c>
       <c r="G32" s="1">
@@ -6523,8 +4088,12 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6541,7 +4110,7 @@
         <v>183208</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="G33" s="1">
@@ -6556,8 +4125,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6589,8 +4162,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -6622,8 +4199,12 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -6655,8 +4236,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -6688,8 +4273,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>44</v>
       </c>
@@ -6723,8 +4312,12 @@
       <c r="K38" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -6741,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" ref="F39:F40" si="6">G39-SUM(D39:E39)</f>
+        <f t="shared" ref="F39:F40" si="7">G39-SUM(D39:E39)</f>
         <v>40514</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="32">
         <v>183960</v>
       </c>
       <c r="H39" s="14">
@@ -6757,10 +4350,14 @@
         <v>0</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -6777,7 +4374,7 @@
         <v>152796</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30687</v>
       </c>
       <c r="G40" s="1">
@@ -6792,8 +4389,12 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -6825,8 +4426,12 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -6858,8 +4463,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -6891,8 +4500,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -6909,7 +4522,7 @@
         <v>213065</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" ref="F44:F46" si="7">G44-SUM(D44:E44)</f>
+        <f t="shared" ref="F44:F46" si="8">G44-SUM(D44:E44)</f>
         <v>65505</v>
       </c>
       <c r="G44" s="1">
@@ -6924,8 +4537,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -6942,7 +4559,7 @@
         <v>211543</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68422</v>
       </c>
       <c r="G45" s="1">
@@ -6957,8 +4574,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -6975,7 +4596,7 @@
         <v>144031</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58692</v>
       </c>
       <c r="G46" s="1">
@@ -6990,8 +4611,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -7023,8 +4648,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -7056,8 +4685,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -7089,8 +4722,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -7122,8 +4759,12 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -7155,8 +4796,12 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -7188,8 +4833,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -7221,8 +4870,12 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -7254,8 +4907,12 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -7287,8 +4944,12 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -7320,8 +4981,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -7356,8 +5021,12 @@
       <c r="K57" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -7389,8 +5058,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -7407,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59" si="8">G59-SUM(D59:E59)</f>
+        <f t="shared" ref="F59" si="9">G59-SUM(D59:E59)</f>
         <v>19358</v>
       </c>
       <c r="G59" s="1">
@@ -7422,8 +5095,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -7455,8 +5132,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -7488,8 +5169,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -7521,8 +5206,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -7554,8 +5243,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -7587,8 +5280,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -7605,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" ref="F65:F67" si="9">G65-SUM(D65:E65)</f>
+        <f t="shared" ref="F65:F67" si="10">G65-SUM(D65:E65)</f>
         <v>24877</v>
       </c>
       <c r="G65" s="1">
@@ -7620,8 +5317,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -7638,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
@@ -7653,8 +5354,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -7671,7 +5376,7 @@
         <v>147533</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
@@ -7686,8 +5391,12 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -7719,8 +5428,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L94" si="11">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -7752,8 +5465,12 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -7785,8 +5502,12 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -7818,8 +5539,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -7836,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="13">
-        <f t="shared" ref="F72:F73" si="10">G72-SUM(D72:E72)</f>
+        <f t="shared" ref="F72:F73" si="12">G72-SUM(D72:E72)</f>
         <v>22331</v>
       </c>
       <c r="G72" s="1">
@@ -7851,8 +5576,12 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -7869,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="G73" s="1">
@@ -7884,8 +5613,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -7917,8 +5650,12 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -7935,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="13">
-        <f t="shared" ref="F75:F82" si="11">G75-SUM(D75:E75)</f>
+        <f t="shared" ref="F75:F82" si="13">G75-SUM(D75:E75)</f>
         <v>30056</v>
       </c>
       <c r="G75" s="1">
@@ -7950,8 +5687,12 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -7968,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21368</v>
       </c>
       <c r="G76" s="1">
@@ -7983,8 +5724,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -8001,7 +5746,7 @@
         <v>203628</v>
       </c>
       <c r="F77" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37203</v>
       </c>
       <c r="G77" s="1">
@@ -8016,8 +5761,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -8034,7 +5783,7 @@
         <v>106570</v>
       </c>
       <c r="F78" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13878</v>
       </c>
       <c r="G78" s="1">
@@ -8049,8 +5798,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -8067,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15579</v>
       </c>
       <c r="G79" s="1">
@@ -8082,8 +5835,12 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -8100,7 +5857,7 @@
         <v>107487</v>
       </c>
       <c r="F80" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15087</v>
       </c>
       <c r="G80" s="1">
@@ -8115,8 +5872,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8133,7 +5894,7 @@
         <v>123104</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15156</v>
       </c>
       <c r="G81" s="1">
@@ -8148,8 +5909,12 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -8166,7 +5931,7 @@
         <v>109163</v>
       </c>
       <c r="F82" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9798</v>
       </c>
       <c r="G82" s="1">
@@ -8181,8 +5946,12 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8214,8 +5983,12 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -8250,8 +6023,12 @@
       <c r="K84" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -8283,8 +6060,12 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8301,7 +6082,7 @@
         <v>189787</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F89" si="12">G86-SUM(D86:E86)</f>
+        <f t="shared" ref="F86:F89" si="14">G86-SUM(D86:E86)</f>
         <v>2108</v>
       </c>
       <c r="G86" s="1">
@@ -8316,8 +6097,12 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8334,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G87" s="1">
@@ -8352,8 +6137,12 @@
       <c r="K87" s="14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -8370,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1145</v>
       </c>
       <c r="G88" s="1">
@@ -8385,8 +6174,12 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -8403,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44820</v>
       </c>
       <c r="G89" s="1">
@@ -8418,8 +6211,12 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -8451,8 +6248,12 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8484,8 +6285,12 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -8502,7 +6307,7 @@
         <v>146807</v>
       </c>
       <c r="F92" s="13">
-        <f t="shared" ref="F92" si="13">G92-SUM(D92:E92)</f>
+        <f t="shared" ref="F92" si="15">G92-SUM(D92:E92)</f>
         <v>13979</v>
       </c>
       <c r="G92" s="1">
@@ -8517,8 +6322,12 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -8550,8 +6359,12 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -8583,39 +6396,43 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L94" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="19"/>
       <c r="D96" s="16">
-        <f t="shared" ref="D96:J96" si="14">SUM(D3:D94)</f>
+        <f t="shared" ref="D96:J96" si="16">SUM(D3:D94)</f>
         <v>5568374</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4385952</v>
       </c>
       <c r="F96" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443063</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11397389</v>
       </c>
       <c r="H96" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="I96" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K96" s="19"/>
@@ -8627,7 +6444,6 @@
       <c r="C99" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:J94" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -8637,910 +6453,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>786619</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>607049</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>569315</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1821457</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>199652</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1">
-        <v>447109</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>239909</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1">
-        <v>267443</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1015125</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1">
-        <v>175622</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1">
-        <v>400940</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="1">
-        <v>214247</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1">
-        <v>159216</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1">
-        <v>688075</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="1">
-        <v>189051</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="1">
-        <v>510667</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1613759</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="1">
-        <v>770768</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1">
-        <v>265809</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1">
-        <v>355557</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="1">
-        <v>11297389</v>
-      </c>
-      <c r="D54">
-        <v>31</v>
-      </c>
-      <c r="E54">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88958B0F-DD70-9A4D-8165-EAE6564BE502}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -9558,34 +6470,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11193,11 +8105,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DE2BEC-D28A-1C4C-9BB3-07FE06573854}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11208,34 +8120,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2000 - 107th).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC396A-9272-B845-BF79-BFCB3D5C5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A75FC-B062-4442-ADEC-E1A7274CC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="500" windowWidth="23020" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2907,13 +2907,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3129,7 +3130,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -6444,7 +6445,37 @@
       <c r="C99" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J94" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J94" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10th"/>
+        <filter val="11th"/>
+        <filter val="12th"/>
+        <filter val="14th"/>
+        <filter val="15th"/>
+        <filter val="17th"/>
+        <filter val="18th"/>
+        <filter val="19th"/>
+        <filter val="1st"/>
+        <filter val="20th"/>
+        <filter val="21st"/>
+        <filter val="26th"/>
+        <filter val="28th"/>
+        <filter val="2nd"/>
+        <filter val="30th"/>
+        <filter val="31st"/>
+        <filter val="3rd"/>
+        <filter val="40th"/>
+        <filter val="43rd"/>
+        <filter val="4th"/>
+        <filter val="5th"/>
+        <filter val="6th"/>
+        <filter val="7th"/>
+        <filter val="8th"/>
+        <filter val="9th"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F92" formula="1"/>
